--- a/docs/testing/Dusk MOD - testing casos de regresion.xlsx
+++ b/docs/testing/Dusk MOD - testing casos de regresion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>DISEÑO DE CASOS DE PRUEBA</t>
   </si>
@@ -356,13 +356,33 @@
 *Dusk Cambie de clase.
 </t>
   </si>
+  <si>
+    <t>010_Dusk_MOD_Readme</t>
+  </si>
+  <si>
+    <t>*contar con el juego baldur's gate II.
+*contar con los archivos del Mod. (Si el mod esta instalado de antes, desinstalar y volver a instalar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Descargar e instalar Baldur's gate II 
+-Iniciar el instalador del Mod
+-Seleccionar idioma
+-El instalador pregunta si abrir el archivo de texto Readme, Ingresar "Y"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Se espera que:
+*se abra el archivo de texto Readme
+*Las notas de version esten actualizadas a la version 1.5
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,7 +413,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -407,7 +427,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -421,13 +441,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -439,7 +459,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -447,6 +467,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -669,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -771,18 +797,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1090,7 +1128,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1098,14 +1136,14 @@
   <cols>
     <col min="1" max="1" style="33" width="8.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="35" width="46.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="53.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="35" width="53.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="34" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="34" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="34" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="34" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="34" width="46.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="34" width="53.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="34" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="36" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="36" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="36" width="53.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="25.5">
@@ -1400,49 +1438,71 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="56.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="74.25">
       <c r="A17" s="37">
         <v>8</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="49.5">
-      <c r="A18" s="27">
-        <v>8</v>
-      </c>
-      <c r="B18" s="28" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="56.25">
+      <c r="A18" s="41">
+        <v>9</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48.75">
+      <c r="A19" s="27">
+        <v>10</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,14 +1522,14 @@
   <cols>
     <col min="1" max="1" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="34" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="35" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="35" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="34" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="34" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="34" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
